--- a/pred_ohlcv/54_21/2019-10-18 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 KNC ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-5779.478800000002</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-5779.478800000002</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-5779.478800000002</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-5779.478800000002</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-5779.478800000002</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-5779.478800000002</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-5779.478800000002</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-5962.071000000002</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-5962.071000000002</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-5962.071000000002</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-4761.071100000002</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-4761.071100000002</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-5404.697600000002</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2819.023700000002</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2144.757900000002</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2144.757900000002</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-2144.757900000002</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2144.757900000002</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-2144.757900000002</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2144.757900000002</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2144.757900000002</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2144.757900000002</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-7144.757900000002</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-879.428600000002</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2479.428600000002</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-4462.211000000001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-2214.713000000002</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>8497.825599999998</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>8497.825599999998</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-13512.7202</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-22440.0736</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-22300.1978</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-22300.1978</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-27042.7306</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-26720.8662</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-26403.8662</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-26403.8662</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-26749.3386</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-25934.3807</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-25934.3807</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-33085.1755</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-33085.1755</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-32942.14709999999</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-32359.33479999999</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-32359.33479999999</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-32359.33479999999</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-32359.33479999999</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-32359.33479999999</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-32359.33479999999</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-27278.12649999999</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-27278.12649999999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-28005.07739999999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-27932.38099999999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-29207.80739999999</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-29207.80739999999</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-29207.80739999999</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-28507.30079999999</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-28502.30439999999</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-18 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 KNC ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-5779.478800000002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-5779.478800000002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-5779.478800000002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-5779.478800000002</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-5779.478800000002</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-5779.478800000002</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-5779.478800000002</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-5779.478800000002</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-5962.071000000002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-5962.071000000002</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-5962.071000000002</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-4761.071100000002</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-4761.071100000002</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-5404.697600000002</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2610.666400000002</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2819.023700000002</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2144.757900000002</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2144.757900000002</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-2144.757900000002</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2144.757900000002</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-2144.757900000002</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2144.757900000002</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2144.757900000002</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2144.757900000002</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-7144.757900000002</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-879.428600000002</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2479.428600000002</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2479.428600000002</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>8394.2889</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>8394.2889</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-4462.211000000001</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-2214.713000000002</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>8497.825599999998</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>8497.825599999998</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-33085.1755</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-32942.14709999999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-32359.33479999999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-32359.33479999999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-32359.33479999999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-32359.33479999999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-27278.12649999999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-27278.12649999999</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-28005.07739999999</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-27932.38099999999</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-29207.80739999999</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-29207.80739999999</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-29207.80739999999</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-28507.30079999999</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-28502.30439999999</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
